--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efna4-Epha2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efna4-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.421153887829359</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H2">
-        <v>0.421153887829359</v>
+        <v>2.241328</v>
       </c>
       <c r="I2">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J2">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.346324873991859</v>
+        <v>12.64154566666667</v>
       </c>
       <c r="N2">
-        <v>9.346324873991859</v>
+        <v>37.924637</v>
       </c>
       <c r="O2">
-        <v>0.4476158920754711</v>
+        <v>0.5019409384896431</v>
       </c>
       <c r="P2">
-        <v>0.4476158920754711</v>
+        <v>0.5019409384896429</v>
       </c>
       <c r="Q2">
-        <v>3.936241057597915</v>
+        <v>9.444616755326223</v>
       </c>
       <c r="R2">
-        <v>3.936241057597915</v>
+        <v>85.00155079793601</v>
       </c>
       <c r="S2">
-        <v>0.1755520976028014</v>
+        <v>0.2333288216303888</v>
       </c>
       <c r="T2">
-        <v>0.1755520976028014</v>
+        <v>0.2333288216303886</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.421153887829359</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H3">
-        <v>0.421153887829359</v>
+        <v>2.241328</v>
       </c>
       <c r="I3">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J3">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.21120802201027</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N3">
-        <v>1.21120802201027</v>
+        <v>3.873479</v>
       </c>
       <c r="O3">
-        <v>0.05800739505318912</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="P3">
-        <v>0.05800739505318912</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="Q3">
-        <v>0.510104967439733</v>
+        <v>0.9646374377902222</v>
       </c>
       <c r="R3">
-        <v>0.510104967439733</v>
+        <v>8.681736940112</v>
       </c>
       <c r="S3">
-        <v>0.02275013032009315</v>
+        <v>0.02383132343969585</v>
       </c>
       <c r="T3">
-        <v>0.02275013032009315</v>
+        <v>0.02383132343969584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.421153887829359</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H4">
-        <v>0.421153887829359</v>
+        <v>2.241328</v>
       </c>
       <c r="I4">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J4">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.838170222010083</v>
+        <v>0.97959</v>
       </c>
       <c r="N4">
-        <v>0.838170222010083</v>
+        <v>2.93877</v>
       </c>
       <c r="O4">
-        <v>0.04014180083555115</v>
+        <v>0.03889526936817373</v>
       </c>
       <c r="P4">
-        <v>0.04014180083555115</v>
+        <v>0.03889526936817372</v>
       </c>
       <c r="Q4">
-        <v>0.3529986476623434</v>
+        <v>0.7318608318399999</v>
       </c>
       <c r="R4">
-        <v>0.3529986476623434</v>
+        <v>6.586747486559999</v>
       </c>
       <c r="S4">
-        <v>0.01574335822966429</v>
+        <v>0.01808058811855569</v>
       </c>
       <c r="T4">
-        <v>0.01574335822966429</v>
+        <v>0.01808058811855568</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.421153887829359</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H5">
-        <v>0.421153887829359</v>
+        <v>2.241328</v>
       </c>
       <c r="I5">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J5">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.664244299965148</v>
+        <v>1.079938333333333</v>
       </c>
       <c r="N5">
-        <v>0.664244299965148</v>
+        <v>3.239815</v>
       </c>
       <c r="O5">
-        <v>0.03181210891912396</v>
+        <v>0.04287966636655804</v>
       </c>
       <c r="P5">
-        <v>0.03181210891912396</v>
+        <v>0.04287966636655803</v>
       </c>
       <c r="Q5">
-        <v>0.279749069398813</v>
+        <v>0.8068320082577777</v>
       </c>
       <c r="R5">
-        <v>0.279749069398813</v>
+        <v>7.261488074319998</v>
       </c>
       <c r="S5">
-        <v>0.01247650619379569</v>
+        <v>0.01993274757647536</v>
       </c>
       <c r="T5">
-        <v>0.01247650619379569</v>
+        <v>0.01993274757647535</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,60 +782,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.421153887829359</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H6">
-        <v>0.421153887829359</v>
+        <v>2.241328</v>
       </c>
       <c r="I6">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J6">
-        <v>0.3921936211621417</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>8.82028726416392</v>
+        <v>0.265959</v>
       </c>
       <c r="N6">
-        <v>8.82028726416392</v>
+        <v>0.7978769999999999</v>
       </c>
       <c r="O6">
-        <v>0.4224228031166647</v>
+        <v>0.01056007814074267</v>
       </c>
       <c r="P6">
-        <v>0.4224228031166647</v>
+        <v>0.01056007814074267</v>
       </c>
       <c r="Q6">
-        <v>3.714698273074415</v>
+        <v>0.198700451184</v>
       </c>
       <c r="R6">
-        <v>3.714698273074415</v>
+        <v>1.788304060656</v>
       </c>
       <c r="S6">
-        <v>0.1656715288157872</v>
+        <v>0.004908885488237888</v>
       </c>
       <c r="T6">
-        <v>0.1656715288157872</v>
+        <v>0.004908885488237886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -841,55 +844,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.427698055435893</v>
+        <v>0.7471093333333333</v>
       </c>
       <c r="H7">
-        <v>0.427698055435893</v>
+        <v>2.241328</v>
       </c>
       <c r="I7">
-        <v>0.3982877849945755</v>
+        <v>0.4648531405557055</v>
       </c>
       <c r="J7">
-        <v>0.3982877849945755</v>
+        <v>0.4648531405557054</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.346324873991859</v>
+        <v>8.927132333333335</v>
       </c>
       <c r="N7">
-        <v>9.346324873991859</v>
+        <v>26.781397</v>
       </c>
       <c r="O7">
-        <v>0.4476158920754711</v>
+        <v>0.3544576984149831</v>
       </c>
       <c r="P7">
-        <v>0.4476158920754711</v>
+        <v>0.3544576984149831</v>
       </c>
       <c r="Q7">
-        <v>3.997404974078436</v>
+        <v>6.669543886135112</v>
       </c>
       <c r="R7">
-        <v>3.997404974078436</v>
+        <v>60.025894975216</v>
       </c>
       <c r="S7">
-        <v>0.1782799421831104</v>
+        <v>0.164770774302352</v>
       </c>
       <c r="T7">
-        <v>0.1782799421831104</v>
+        <v>0.164770774302352</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +906,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.427698055435893</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H8">
-        <v>0.427698055435893</v>
+        <v>1.439786</v>
       </c>
       <c r="I8">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267525</v>
       </c>
       <c r="J8">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267524</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.21120802201027</v>
+        <v>12.64154566666667</v>
       </c>
       <c r="N8">
-        <v>1.21120802201027</v>
+        <v>37.924637</v>
       </c>
       <c r="O8">
-        <v>0.05800739505318912</v>
+        <v>0.5019409384896431</v>
       </c>
       <c r="P8">
-        <v>0.05800739505318912</v>
+        <v>0.5019409384896429</v>
       </c>
       <c r="Q8">
-        <v>0.5180313157421468</v>
+        <v>6.067040156409112</v>
       </c>
       <c r="R8">
-        <v>0.5180313157421468</v>
+        <v>54.60336140768201</v>
       </c>
       <c r="S8">
-        <v>0.02310363688903999</v>
+        <v>0.1498859474293504</v>
       </c>
       <c r="T8">
-        <v>0.02310363688903999</v>
+        <v>0.1498859474293503</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,55 +968,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.427698055435893</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H9">
-        <v>0.427698055435893</v>
+        <v>1.439786</v>
       </c>
       <c r="I9">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267525</v>
       </c>
       <c r="J9">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267524</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.838170222010083</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N9">
-        <v>0.838170222010083</v>
+        <v>3.873479</v>
       </c>
       <c r="O9">
-        <v>0.04014180083555115</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="P9">
-        <v>0.04014180083555115</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="Q9">
-        <v>0.3584837740779832</v>
+        <v>0.6196645372771111</v>
       </c>
       <c r="R9">
-        <v>0.3584837740779832</v>
+        <v>5.576980835494</v>
       </c>
       <c r="S9">
-        <v>0.01598798894048507</v>
+        <v>0.01530878383259654</v>
       </c>
       <c r="T9">
-        <v>0.01598798894048507</v>
+        <v>0.01530878383259653</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,55 +1030,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.427698055435893</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H10">
-        <v>0.427698055435893</v>
+        <v>1.439786</v>
       </c>
       <c r="I10">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267525</v>
       </c>
       <c r="J10">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267524</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.664244299965148</v>
+        <v>0.97959</v>
       </c>
       <c r="N10">
-        <v>0.664244299965148</v>
+        <v>2.93877</v>
       </c>
       <c r="O10">
-        <v>0.03181210891912396</v>
+        <v>0.03889526936817373</v>
       </c>
       <c r="P10">
-        <v>0.03181210891912396</v>
+        <v>0.03889526936817372</v>
       </c>
       <c r="Q10">
-        <v>0.2840959954294698</v>
+        <v>0.47013332258</v>
       </c>
       <c r="R10">
-        <v>0.2840959954294698</v>
+        <v>4.23119990322</v>
       </c>
       <c r="S10">
-        <v>0.01267037439740406</v>
+        <v>0.01161462206551778</v>
       </c>
       <c r="T10">
-        <v>0.01267037439740406</v>
+        <v>0.01161462206551777</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,60 +1092,60 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.427698055435893</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H11">
-        <v>0.427698055435893</v>
+        <v>1.439786</v>
       </c>
       <c r="I11">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267525</v>
       </c>
       <c r="J11">
-        <v>0.3982877849945755</v>
+        <v>0.2986127170267524</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.82028726416392</v>
+        <v>1.079938333333333</v>
       </c>
       <c r="N11">
-        <v>8.82028726416392</v>
+        <v>3.239815</v>
       </c>
       <c r="O11">
-        <v>0.4224228031166647</v>
+        <v>0.04287966636655804</v>
       </c>
       <c r="P11">
-        <v>0.4224228031166647</v>
+        <v>0.04287966636655803</v>
       </c>
       <c r="Q11">
-        <v>3.772419711268881</v>
+        <v>0.5182933643988888</v>
       </c>
       <c r="R11">
-        <v>3.772419711268881</v>
+        <v>4.664640279589999</v>
       </c>
       <c r="S11">
-        <v>0.1682458425845361</v>
+        <v>0.01280441367891855</v>
       </c>
       <c r="T11">
-        <v>0.1682458425845361</v>
+        <v>0.01280441367891855</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1151,117 +1154,117 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.224989815255457</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H12">
-        <v>0.224989815255457</v>
+        <v>1.439786</v>
       </c>
       <c r="I12">
-        <v>0.2095185938432828</v>
+        <v>0.2986127170267525</v>
       </c>
       <c r="J12">
-        <v>0.2095185938432828</v>
+        <v>0.2986127170267524</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>9.346324873991859</v>
+        <v>0.265959</v>
       </c>
       <c r="N12">
-        <v>9.346324873991859</v>
+        <v>0.7978769999999999</v>
       </c>
       <c r="O12">
-        <v>0.4476158920754711</v>
+        <v>0.01056007814074267</v>
       </c>
       <c r="P12">
-        <v>0.4476158920754711</v>
+        <v>0.01056007814074267</v>
       </c>
       <c r="Q12">
-        <v>2.102827906716911</v>
+        <v>0.127641348258</v>
       </c>
       <c r="R12">
-        <v>2.102827906716911</v>
+        <v>1.148772134322</v>
       </c>
       <c r="S12">
-        <v>0.09378385228955935</v>
+        <v>0.003153373625621987</v>
       </c>
       <c r="T12">
-        <v>0.09378385228955935</v>
+        <v>0.003153373625621986</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.224989815255457</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H13">
-        <v>0.224989815255457</v>
+        <v>1.439786</v>
       </c>
       <c r="I13">
-        <v>0.2095185938432828</v>
+        <v>0.2986127170267525</v>
       </c>
       <c r="J13">
-        <v>0.2095185938432828</v>
+        <v>0.2986127170267524</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.21120802201027</v>
+        <v>8.927132333333335</v>
       </c>
       <c r="N13">
-        <v>1.21120802201027</v>
+        <v>26.781397</v>
       </c>
       <c r="O13">
-        <v>0.05800739505318912</v>
+        <v>0.3544576984149831</v>
       </c>
       <c r="P13">
-        <v>0.05800739505318912</v>
+        <v>0.3544576984149831</v>
       </c>
       <c r="Q13">
-        <v>0.2725094691080181</v>
+        <v>4.284386717893556</v>
       </c>
       <c r="R13">
-        <v>0.2725094691080181</v>
+        <v>38.559480461042</v>
       </c>
       <c r="S13">
-        <v>0.01215362784405599</v>
+        <v>0.1058455763947473</v>
       </c>
       <c r="T13">
-        <v>0.01215362784405599</v>
+        <v>0.1058455763947473</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,55 +1278,55 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.224989815255457</v>
+        <v>0.3801563333333333</v>
       </c>
       <c r="H14">
-        <v>0.224989815255457</v>
+        <v>1.140469</v>
       </c>
       <c r="I14">
-        <v>0.2095185938432828</v>
+        <v>0.2365341424175421</v>
       </c>
       <c r="J14">
-        <v>0.2095185938432828</v>
+        <v>0.2365341424175421</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.838170222010083</v>
+        <v>12.64154566666667</v>
       </c>
       <c r="N14">
-        <v>0.838170222010083</v>
+        <v>37.924637</v>
       </c>
       <c r="O14">
-        <v>0.04014180083555115</v>
+        <v>0.5019409384896431</v>
       </c>
       <c r="P14">
-        <v>0.04014180083555115</v>
+        <v>0.5019409384896429</v>
       </c>
       <c r="Q14">
-        <v>0.1885797634026739</v>
+        <v>4.805763648305889</v>
       </c>
       <c r="R14">
-        <v>0.1885797634026739</v>
+        <v>43.251872834753</v>
       </c>
       <c r="S14">
-        <v>0.008410453665401793</v>
+        <v>0.118726169429904</v>
       </c>
       <c r="T14">
-        <v>0.008410453665401793</v>
+        <v>0.1187261694299039</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,55 +1340,55 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.224989815255457</v>
+        <v>0.3801563333333333</v>
       </c>
       <c r="H15">
-        <v>0.224989815255457</v>
+        <v>1.140469</v>
       </c>
       <c r="I15">
-        <v>0.2095185938432828</v>
+        <v>0.2365341424175421</v>
       </c>
       <c r="J15">
-        <v>0.2095185938432828</v>
+        <v>0.2365341424175421</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.664244299965148</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N15">
-        <v>0.664244299965148</v>
+        <v>3.873479</v>
       </c>
       <c r="O15">
-        <v>0.03181210891912396</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="P15">
-        <v>0.03181210891912396</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="Q15">
-        <v>0.149448202333649</v>
+        <v>0.4908425246278889</v>
       </c>
       <c r="R15">
-        <v>0.149448202333649</v>
+        <v>4.417582721651</v>
       </c>
       <c r="S15">
-        <v>0.006665228327924208</v>
+        <v>0.01212624194760717</v>
       </c>
       <c r="T15">
-        <v>0.006665228327924208</v>
+        <v>0.01212624194760717</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,55 +1402,241 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3801563333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.140469</v>
+      </c>
+      <c r="I16">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="J16">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.97959</v>
+      </c>
+      <c r="N16">
+        <v>2.93877</v>
+      </c>
+      <c r="O16">
+        <v>0.03889526936817373</v>
+      </c>
+      <c r="P16">
+        <v>0.03889526936817372</v>
+      </c>
+      <c r="Q16">
+        <v>0.37239734257</v>
+      </c>
+      <c r="R16">
+        <v>3.35157608313</v>
+      </c>
+      <c r="S16">
+        <v>0.00920005918410027</v>
+      </c>
+      <c r="T16">
+        <v>0.009200059184100266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.224989815255457</v>
-      </c>
-      <c r="H16">
-        <v>0.224989815255457</v>
-      </c>
-      <c r="I16">
-        <v>0.2095185938432828</v>
-      </c>
-      <c r="J16">
-        <v>0.2095185938432828</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.82028726416392</v>
-      </c>
-      <c r="N16">
-        <v>8.82028726416392</v>
-      </c>
-      <c r="O16">
-        <v>0.4224228031166647</v>
-      </c>
-      <c r="P16">
-        <v>0.4224228031166647</v>
-      </c>
-      <c r="Q16">
-        <v>1.984474802064301</v>
-      </c>
-      <c r="R16">
-        <v>1.984474802064301</v>
-      </c>
-      <c r="S16">
-        <v>0.0885054317163415</v>
-      </c>
-      <c r="T16">
-        <v>0.0885054317163415</v>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3801563333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.140469</v>
+      </c>
+      <c r="I17">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="J17">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.079938333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.239815</v>
+      </c>
+      <c r="O17">
+        <v>0.04287966636655804</v>
+      </c>
+      <c r="P17">
+        <v>0.04287966636655803</v>
+      </c>
+      <c r="Q17">
+        <v>0.410545397026111</v>
+      </c>
+      <c r="R17">
+        <v>3.694908573234999</v>
+      </c>
+      <c r="S17">
+        <v>0.01014250511116413</v>
+      </c>
+      <c r="T17">
+        <v>0.01014250511116413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3801563333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.140469</v>
+      </c>
+      <c r="I18">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="J18">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.265959</v>
+      </c>
+      <c r="N18">
+        <v>0.7978769999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.01056007814074267</v>
+      </c>
+      <c r="P18">
+        <v>0.01056007814074267</v>
+      </c>
+      <c r="Q18">
+        <v>0.101105998257</v>
+      </c>
+      <c r="R18">
+        <v>0.9099539843129999</v>
+      </c>
+      <c r="S18">
+        <v>0.002497819026882802</v>
+      </c>
+      <c r="T18">
+        <v>0.0024978190268828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3801563333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.140469</v>
+      </c>
+      <c r="I19">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="J19">
+        <v>0.2365341424175421</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.927132333333335</v>
+      </c>
+      <c r="N19">
+        <v>26.781397</v>
+      </c>
+      <c r="O19">
+        <v>0.3544576984149831</v>
+      </c>
+      <c r="P19">
+        <v>0.3544576984149831</v>
+      </c>
+      <c r="Q19">
+        <v>3.393705895021445</v>
+      </c>
+      <c r="R19">
+        <v>30.543353055193</v>
+      </c>
+      <c r="S19">
+        <v>0.08384134771788382</v>
+      </c>
+      <c r="T19">
+        <v>0.08384134771788379</v>
       </c>
     </row>
   </sheetData>
